--- a/StudentData/Assessments/Unit5/5.1.4/floatingFlags.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.4/floatingFlags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5EDA79C-A377-40E5-8255-FF92F13EBF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{92B17140-39D7-4BC3-A38B-AF2C09E6EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{66C61164-7FCA-41E6-B7C4-4C6102242AF6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{66C61164-7FCA-41E6-B7C4-4C6102242AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,16 +60,8 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -79,41 +71,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Var(--fontFamilyBase)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Var(--fontFamilyBase)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7.5"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -158,37 +136,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,401 +502,401 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.23046875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.1" thickBot="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <v>3000</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>15</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>8.5</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="7">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>3200</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>52500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>3100</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="6">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>8.6</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <v>51200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>3400</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>8.9</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <v>55000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>3500</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>57000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>2900</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>14</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>48000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>3700</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>19</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <v>3300</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="7">
         <v>53500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>3050</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>8.5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <v>50800</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>3800</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="7">
         <v>62000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" s="11">
+    <row r="12" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>3400</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>8.9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="7">
         <v>55800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>3100</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>15</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>8.6</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>51500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
-      <c r="A14" s="11">
+    <row r="14" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>2950</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>14</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>8.4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>49000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
-      <c r="A15" s="11">
+    <row r="15" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>3500</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>18</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <v>9</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>57500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
-      <c r="A16" s="11">
+    <row r="16" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>3900</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>9.4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>64000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>3000</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="6">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="6">
         <v>8.5</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="7">
         <v>50200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>3200</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="6">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>8.6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <v>52000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>3450</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="6">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <v>54500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>3050</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>15</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>8.5</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <v>51000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>3700</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="6">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="6">
         <v>9.1</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <v>59500</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:1" ht="15" thickBot="1"/>
-    <row r="44" spans="1:1" ht="15" thickBot="1">
-      <c r="A44" s="9"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:1" ht="14.6" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:1" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,15 +904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -1201,6 +1167,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1216,13 +1191,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B92E54-1016-4765-935F-100394C8BA4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E8C9A7F-D1DC-45A2-BC2D-CBD902995CF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E8C9A7F-D1DC-45A2-BC2D-CBD902995CF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B92E54-1016-4765-935F-100394C8BA4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15961A7E-AD58-4745-8787-56DED1AF2529}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15961A7E-AD58-4745-8787-56DED1AF2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>